--- a/Desafio5/File_Product.xlsx
+++ b/Desafio5/File_Product.xlsx
@@ -112,7 +112,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45219.98263881944</v>
+        <v>45219.99956712963</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -142,7 +142,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45219.982729027775</v>
+        <v>45219.999648958335</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -180,7 +180,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45219.9828128125</v>
+        <v>45219.99972626157</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -210,7 +210,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45219.98289425926</v>
+        <v>45219.99981288194</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -240,7 +240,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45219.98293571759</v>
+        <v>45219.999862627315</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -270,7 +270,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45219.98297993056</v>
+        <v>45219.999906909725</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -300,7 +300,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45219.98315600694</v>
+        <v>45220.000100439815</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -330,7 +330,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45219.98327505787</v>
+        <v>45220.000214189815</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -360,7 +360,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45219.983321493055</v>
+        <v>45220.00025094907</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -390,7 +390,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45219.98352071759</v>
+        <v>45220.00045583333</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -420,7 +420,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45219.98379047454</v>
+        <v>45220.00071946759</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -450,7 +450,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45219.98404767361</v>
+        <v>45220.00097725695</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45219.9841408912</v>
+        <v>45220.001079375</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45219.98423642361</v>
+        <v>45220.00115282407</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45219.984276793984</v>
+        <v>45220.00119525463</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45219.98431494213</v>
+        <v>45220.00123221065</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45219.984391157406</v>
+        <v>45220.00132767361</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45219.984509421294</v>
+        <v>45220.00145875</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45219.984763912034</v>
+        <v>45220.00171709491</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45219.984845833336</v>
+        <v>45220.00179517361</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45219.985101481485</v>
+        <v>45220.002051840274</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45219.98541296296</v>
+        <v>45220.00235003472</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45219.9856700463</v>
+        <v>45220.00260813657</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45219.985767094906</v>
+        <v>45220.002705520834</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45219.986033368055</v>
+        <v>45220.00296474537</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45219.98629086806</v>
+        <v>45220.0032271875</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45219.98654583333</v>
+        <v>45220.00348590278</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
